--- a/1-学习内容/2025/持仓成本.xlsx
+++ b/1-学习内容/2025/持仓成本.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\日常总结\1-学习内容\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895B1D51-ED6A-4936-AEBB-CCD1E0EDA9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A396EE-F6CB-4217-B516-02C4532E2324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AMD" sheetId="1" r:id="rId1"/>
     <sheet name="xxx" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -732,25 +732,25 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8:L18"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="10" width="11.77734375" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="8" max="10" width="11.75" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" customWidth="1"/>
+    <col min="13" max="13" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -767,7 +767,7 @@
       <c r="L1" s="30"/>
       <c r="M1" s="31"/>
     </row>
-    <row r="2" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -782,7 +782,7 @@
       <c r="L2" s="32"/>
       <c r="M2" s="33"/>
     </row>
-    <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -823,7 +823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -853,14 +853,14 @@
         <v>411</v>
       </c>
       <c r="L4" s="12">
-        <f t="shared" ref="L4:L18" si="0">ROUND(K4/M4,4)</f>
+        <f t="shared" ref="L4:L8" si="0">ROUND(K4/M4,4)</f>
         <v>0.16439999999999999</v>
       </c>
       <c r="M4" s="7">
         <v>2500</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -897,7 +897,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -934,7 +934,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -971,26 +971,44 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="10"/>
+      <c r="D8" s="17">
+        <v>99</v>
+      </c>
+      <c r="E8" s="10">
+        <v>3</v>
+      </c>
       <c r="F8" s="18"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="12"/>
+      <c r="H8" s="15">
+        <f>SUM(H7)+C8+E8-G8</f>
+        <v>14</v>
+      </c>
+      <c r="I8" s="14">
+        <f>ROUND(K8/H8,2)</f>
+        <v>121.24</v>
+      </c>
+      <c r="J8" s="6">
+        <v>45716</v>
+      </c>
+      <c r="K8" s="7">
+        <f>SUM(B8)*SUM(C8)+SUM(D8)*SUM(E8)-SUM(F8)*SUM(G8)+SUM(K7)</f>
+        <v>1697.4</v>
+      </c>
+      <c r="L8" s="12">
+        <f t="shared" si="0"/>
+        <v>0.67900000000000005</v>
+      </c>
       <c r="M8" s="7">
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1009,7 +1027,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1028,7 +1046,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1047,7 +1065,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1066,7 +1084,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1085,7 +1103,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1104,7 +1122,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1123,7 +1141,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1142,7 +1160,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1161,7 +1179,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1180,7 +1198,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1194,7 +1212,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1208,7 +1226,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1242,22 +1260,22 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="10" width="11.77734375" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="8" max="10" width="11.75" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" customWidth="1"/>
+    <col min="13" max="13" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1292,7 @@
       <c r="L1" s="30"/>
       <c r="M1" s="31"/>
     </row>
-    <row r="2" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -1289,7 +1307,7 @@
       <c r="L2" s="32"/>
       <c r="M2" s="33"/>
     </row>
-    <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -1330,7 +1348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1367,7 +1385,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1404,7 +1422,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1441,7 +1459,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1478,7 +1496,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1515,7 +1533,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1552,7 +1570,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1569,7 +1587,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1586,7 +1604,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1603,7 +1621,7 @@
       <c r="L12" s="13"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1620,7 +1638,7 @@
       <c r="L13" s="13"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1637,7 +1655,7 @@
       <c r="L14" s="13"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1654,7 +1672,7 @@
       <c r="L15" s="13"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1671,7 +1689,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1688,7 +1706,7 @@
       <c r="L17" s="13"/>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1705,7 +1723,7 @@
       <c r="L18" s="13"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1719,7 +1737,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1733,7 +1751,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>

--- a/1-学习内容/2025/持仓成本.xlsx
+++ b/1-学习内容/2025/持仓成本.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\日常总结\1-学习内容\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\笔记\日常总结\1-学习内容\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A396EE-F6CB-4217-B516-02C4532E2324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F028919-D951-4DC4-BECB-287690131F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AMD" sheetId="1" r:id="rId1"/>
-    <sheet name="xxx" sheetId="2" r:id="rId2"/>
+    <sheet name="QQQ" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>持仓成本=(买入总金额-卖出总金额)／(买入总股数-卖出总股数)
 持仓成本=(买入价格+买入数量+加仓价格+加仓数量卖出价格+卖出数量)(买入数量+加仓数量-卖出数量)</t>
@@ -107,6 +107,14 @@
   </si>
   <si>
     <t>xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总投入 ￥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总资金￥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,26 +739,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="11.78515625" customWidth="1"/>
+    <col min="2" max="2" width="12.78515625" customWidth="1"/>
+    <col min="3" max="3" width="12.2109375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="10" width="11.75" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="8" max="10" width="11.78515625" customWidth="1"/>
+    <col min="11" max="11" width="14.35546875" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -767,7 +775,7 @@
       <c r="L1" s="30"/>
       <c r="M1" s="31"/>
     </row>
-    <row r="2" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -782,7 +790,7 @@
       <c r="L2" s="32"/>
       <c r="M2" s="33"/>
     </row>
-    <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -823,7 +831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -860,7 +868,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -897,7 +905,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -934,7 +942,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -971,7 +979,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1008,7 +1016,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1027,7 +1035,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1046,7 +1054,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1065,7 +1073,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1084,7 +1092,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1103,7 +1111,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1122,7 +1130,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1141,7 +1149,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1160,7 +1168,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1179,7 +1187,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1198,7 +1206,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1212,7 +1220,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1226,7 +1234,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1254,28 +1262,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC96F52-3510-4263-A07D-702567133896}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="10" width="11.75" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="11.78515625" customWidth="1"/>
+    <col min="2" max="2" width="12.78515625" customWidth="1"/>
+    <col min="3" max="3" width="12.2109375" customWidth="1"/>
+    <col min="4" max="4" width="11.0703125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.92578125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="10" width="11.78515625" customWidth="1"/>
+    <col min="11" max="11" width="14.35546875" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1292,7 +1300,7 @@
       <c r="L1" s="30"/>
       <c r="M1" s="31"/>
     </row>
-    <row r="2" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -1307,7 +1315,7 @@
       <c r="L2" s="32"/>
       <c r="M2" s="33"/>
     </row>
-    <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -1339,24 +1347,24 @@
         <v>8</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L3" s="19" t="s">
         <v>9</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="16">
-        <v>50</v>
+        <v>514</v>
       </c>
       <c r="C4" s="9">
-        <v>100</v>
+        <v>9.7270000000000003</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="10"/>
@@ -1364,366 +1372,591 @@
       <c r="G4" s="11"/>
       <c r="H4" s="15">
         <f>SUM(H3)+C4+E4-G4</f>
-        <v>100</v>
+        <v>9.7270000000000003</v>
       </c>
       <c r="I4" s="14">
         <f>ROUND(K4/H4,2)</f>
-        <v>50</v>
+        <v>514</v>
       </c>
       <c r="J4" s="6">
-        <v>45658</v>
+        <v>45714</v>
       </c>
       <c r="K4" s="7">
-        <f>SUM(B4)*SUM(C4)+SUM(D4)*SUM(E4)-SUM(F4)*SUM(G4)+SUM(K3)</f>
-        <v>5000</v>
+        <f t="shared" ref="K4:K18" si="0">SUM(B4)*SUM(C4)+SUM(D4)*SUM(E4)-SUM(F4)*SUM(G4)+SUM(K3)</f>
+        <v>4999.6779999999999</v>
       </c>
       <c r="L4" s="12">
-        <f t="shared" ref="L4:L9" si="0">ROUND(K4/M4,4)</f>
-        <v>0.05</v>
+        <f t="shared" ref="L4:L17" si="1">ROUND(K4/M4,4)</f>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="M4" s="7">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>280000</v>
+      </c>
+      <c r="N4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="9"/>
       <c r="D5" s="17">
-        <v>45</v>
+        <v>508</v>
       </c>
       <c r="E5" s="10">
-        <v>120</v>
+        <v>9.8420000000000005</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="11"/>
       <c r="H5" s="15">
-        <f t="shared" ref="H5:H9" si="1">SUM(H4)+C5+E5-G5</f>
-        <v>220</v>
+        <f t="shared" ref="H5:H18" si="2">SUM(H4)+C5+E5-G5</f>
+        <v>19.569000000000003</v>
       </c>
       <c r="I5" s="14">
-        <f t="shared" ref="I5:I8" si="2">ROUND(K5/H5,2)</f>
-        <v>47.27</v>
+        <f t="shared" ref="I5:I18" si="3">ROUND(K5/H5,2)</f>
+        <v>510.98</v>
       </c>
       <c r="J5" s="6">
-        <v>45659</v>
+        <v>45716</v>
       </c>
       <c r="K5" s="7">
-        <f>SUM(B5)*SUM(C5)+SUM(D5)*SUM(E5)-SUM(F5)*SUM(G5)+SUM(K4)</f>
-        <v>10400</v>
+        <f t="shared" si="0"/>
+        <v>9999.4140000000007</v>
       </c>
       <c r="L5" s="12">
-        <f t="shared" si="0"/>
-        <v>0.104</v>
+        <f t="shared" si="1"/>
+        <v>3.5700000000000003E-2</v>
       </c>
       <c r="M5" s="7">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>280000</v>
+      </c>
+      <c r="N5">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="18">
-        <v>50</v>
-      </c>
-      <c r="G6" s="11">
-        <v>120</v>
-      </c>
+      <c r="D6" s="17">
+        <v>495.5</v>
+      </c>
+      <c r="E6" s="10">
+        <v>10.09</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="15">
+        <f t="shared" si="2"/>
+        <v>29.659000000000002</v>
+      </c>
+      <c r="I6" s="14">
+        <f t="shared" si="3"/>
+        <v>505.72</v>
+      </c>
+      <c r="J6" s="6">
+        <v>45720</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="0"/>
+        <v>14999.009000000002</v>
+      </c>
+      <c r="L6" s="12">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I6" s="14">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="J6" s="6">
-        <v>45660</v>
-      </c>
-      <c r="K6" s="7">
-        <f>SUM(B6)*SUM(C6)+SUM(D6)*SUM(E6)-SUM(F6)*SUM(G6)+SUM(K5)</f>
-        <v>4400</v>
-      </c>
-      <c r="L6" s="12">
-        <f t="shared" si="0"/>
-        <v>4.3999999999999997E-2</v>
+        <v>5.3600000000000002E-2</v>
       </c>
       <c r="M6" s="7">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>280000</v>
+      </c>
+      <c r="N6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="17">
-        <v>48</v>
+        <v>502</v>
       </c>
       <c r="E7" s="10">
-        <v>120</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="11"/>
       <c r="H7" s="15">
+        <f t="shared" si="2"/>
+        <v>39.619</v>
+      </c>
+      <c r="I7" s="14">
+        <f t="shared" si="3"/>
+        <v>504.78</v>
+      </c>
+      <c r="J7" s="6">
+        <v>45721</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="0"/>
+        <v>19998.929000000004</v>
+      </c>
+      <c r="L7" s="12">
         <f t="shared" si="1"/>
-        <v>220</v>
-      </c>
-      <c r="I7" s="14">
-        <f t="shared" si="2"/>
-        <v>46.18</v>
-      </c>
-      <c r="J7" s="6">
-        <v>45661</v>
-      </c>
-      <c r="K7" s="7">
-        <f>SUM(B7)*SUM(C7)+SUM(D7)*SUM(E7)-SUM(F7)*SUM(G7)+SUM(K6)</f>
-        <v>10160</v>
-      </c>
-      <c r="L7" s="12">
-        <f t="shared" si="0"/>
-        <v>0.1016</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="M7" s="7">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>280000</v>
+      </c>
+      <c r="N7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="9"/>
       <c r="D8" s="17">
-        <v>60</v>
+        <v>471.6</v>
       </c>
       <c r="E8" s="10">
-        <v>100</v>
+        <v>4.24</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="11"/>
       <c r="H8" s="15">
+        <f t="shared" si="2"/>
+        <v>43.859000000000002</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" si="3"/>
+        <v>501.57</v>
+      </c>
+      <c r="J8" s="6">
+        <v>45727</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="0"/>
+        <v>21998.513000000003</v>
+      </c>
+      <c r="L8" s="12">
         <f t="shared" si="1"/>
-        <v>320</v>
-      </c>
-      <c r="I8" s="14">
-        <f t="shared" si="2"/>
-        <v>50.5</v>
-      </c>
-      <c r="J8" s="6">
-        <v>45662</v>
-      </c>
-      <c r="K8" s="7">
-        <f t="shared" ref="K8:K9" si="3">SUM(B8)*SUM(C8)+SUM(D8)*SUM(E8)-SUM(F8)*SUM(G8)+SUM(K7)</f>
-        <v>16160</v>
-      </c>
-      <c r="L8" s="12">
-        <f t="shared" si="0"/>
-        <v>0.16159999999999999</v>
+        <v>7.8600000000000003E-2</v>
       </c>
       <c r="M8" s="7">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>280000</v>
+      </c>
+      <c r="N8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="18">
-        <v>70</v>
-      </c>
-      <c r="G9" s="11">
-        <v>100</v>
-      </c>
+      <c r="D9" s="17">
+        <v>477</v>
+      </c>
+      <c r="E9" s="10">
+        <v>12.57</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="15">
+        <f t="shared" si="2"/>
+        <v>56.429000000000002</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="3"/>
+        <v>496.1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>45728</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="0"/>
+        <v>27994.403000000002</v>
+      </c>
+      <c r="L9" s="12">
         <f t="shared" si="1"/>
-        <v>220</v>
-      </c>
-      <c r="I9" s="14">
-        <f>ROUND(K9/H9,2)</f>
-        <v>41.64</v>
-      </c>
-      <c r="J9" s="6">
-        <v>45663</v>
-      </c>
-      <c r="K9" s="7">
-        <f t="shared" si="3"/>
-        <v>9160</v>
-      </c>
-      <c r="L9" s="12">
-        <f t="shared" si="0"/>
-        <v>9.1600000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="M9" s="7">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>280000</v>
+      </c>
+      <c r="N9">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="17">
+        <v>468.34</v>
+      </c>
+      <c r="E10" s="10">
+        <v>8.5399999999999991</v>
+      </c>
       <c r="F10" s="18"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H10" s="15">
+        <f t="shared" si="2"/>
+        <v>64.968999999999994</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" si="3"/>
+        <v>492.45</v>
+      </c>
+      <c r="J10" s="6">
+        <v>45729</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" si="0"/>
+        <v>31994.026600000001</v>
+      </c>
+      <c r="L10" s="12">
+        <f t="shared" si="1"/>
+        <v>0.1143</v>
+      </c>
+      <c r="M10" s="7">
+        <v>280000</v>
+      </c>
+      <c r="N10">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="10"/>
+      <c r="D11" s="17">
+        <v>479.66</v>
+      </c>
+      <c r="E11" s="10">
+        <v>8.33</v>
+      </c>
       <c r="F11" s="18"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="15">
+        <f t="shared" si="2"/>
+        <v>73.298999999999992</v>
+      </c>
+      <c r="I11" s="14">
+        <f t="shared" si="3"/>
+        <v>491</v>
+      </c>
+      <c r="J11" s="6">
+        <v>45730</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="0"/>
+        <v>35989.594400000002</v>
+      </c>
+      <c r="L11" s="12">
+        <f t="shared" si="1"/>
+        <v>0.1285</v>
+      </c>
+      <c r="M11" s="7">
+        <v>280000</v>
+      </c>
+      <c r="N11">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="17">
+        <v>480.12400000000002</v>
+      </c>
+      <c r="E12" s="10">
+        <v>10.41</v>
+      </c>
       <c r="F12" s="18"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="15">
+        <f t="shared" si="2"/>
+        <v>83.708999999999989</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="3"/>
+        <v>489.64</v>
+      </c>
+      <c r="J12" s="6">
+        <v>45737</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" si="0"/>
+        <v>40987.685240000006</v>
+      </c>
+      <c r="L12" s="12">
+        <f t="shared" si="1"/>
+        <v>0.1464</v>
+      </c>
+      <c r="M12" s="7">
+        <v>280000</v>
+      </c>
+      <c r="N12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="10"/>
+      <c r="D13" s="17">
+        <v>490.66</v>
+      </c>
+      <c r="E13" s="10">
+        <v>5.09</v>
+      </c>
       <c r="F13" s="18"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="15">
+        <f t="shared" si="2"/>
+        <v>88.798999999999992</v>
+      </c>
+      <c r="I13" s="14">
+        <f t="shared" si="3"/>
+        <v>489.7</v>
+      </c>
+      <c r="J13" s="6">
+        <v>45740</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="0"/>
+        <v>43485.144640000006</v>
+      </c>
+      <c r="L13" s="12">
+        <f t="shared" si="1"/>
+        <v>0.15529999999999999</v>
+      </c>
+      <c r="M13" s="7">
+        <v>280000</v>
+      </c>
+      <c r="N13">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="10"/>
+      <c r="D14" s="17">
+        <v>504.327</v>
+      </c>
+      <c r="E14" s="10">
+        <f>N14/D14</f>
+        <v>5.9485214949824226</v>
+      </c>
       <c r="F14" s="18"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="15">
+        <f t="shared" si="2"/>
+        <v>94.747521494982408</v>
+      </c>
+      <c r="I14" s="14">
+        <f t="shared" si="3"/>
+        <v>490.62</v>
+      </c>
+      <c r="J14" s="6">
+        <v>45671</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="0"/>
+        <v>46485.144640000006</v>
+      </c>
+      <c r="L14" s="12">
+        <f t="shared" si="1"/>
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="M14" s="7">
+        <v>280000</v>
+      </c>
+      <c r="N14">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="10"/>
+      <c r="D15" s="17">
+        <v>515.92999999999995</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" ref="E15:E18" si="4">N15/D15</f>
+        <v>5.8147423100032958</v>
+      </c>
       <c r="F15" s="18"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="15">
+        <f t="shared" si="2"/>
+        <v>100.5622638049857</v>
+      </c>
+      <c r="I15" s="14">
+        <f t="shared" si="3"/>
+        <v>492.08</v>
+      </c>
+      <c r="J15" s="6">
+        <v>45672</v>
+      </c>
+      <c r="K15" s="7">
+        <f t="shared" si="0"/>
+        <v>49485.144640000006</v>
+      </c>
+      <c r="L15" s="12">
+        <f t="shared" si="1"/>
+        <v>0.1767</v>
+      </c>
+      <c r="M15" s="7">
+        <v>280000</v>
+      </c>
+      <c r="N15">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="17">
+        <v>512.31600000000003</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" si="4"/>
+        <v>3.9038405983806865</v>
+      </c>
       <c r="F16" s="18"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="15">
+        <f t="shared" si="2"/>
+        <v>104.46610440336639</v>
+      </c>
+      <c r="I16" s="14">
+        <f t="shared" si="3"/>
+        <v>492.84</v>
+      </c>
+      <c r="J16" s="6">
+        <v>45673</v>
+      </c>
+      <c r="K16" s="7">
+        <f t="shared" si="0"/>
+        <v>51485.144640000006</v>
+      </c>
+      <c r="L16" s="12">
+        <f t="shared" si="1"/>
+        <v>0.18390000000000001</v>
+      </c>
+      <c r="M16" s="7">
+        <v>280000</v>
+      </c>
+      <c r="N16">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="10"/>
+      <c r="D17" s="17">
+        <v>520.96299999999997</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" si="4"/>
+        <v>3.8390442315481139</v>
+      </c>
       <c r="F17" s="18"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="15">
+        <f t="shared" si="2"/>
+        <v>108.3051486349145</v>
+      </c>
+      <c r="I17" s="14">
+        <f t="shared" si="3"/>
+        <v>493.84</v>
+      </c>
+      <c r="J17" s="6">
+        <v>45674</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" si="0"/>
+        <v>53485.144640000006</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" si="1"/>
+        <v>0.191</v>
+      </c>
+      <c r="M17" s="7">
+        <v>280000</v>
+      </c>
+      <c r="N17">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="10"/>
+      <c r="D18" s="17">
+        <v>430</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" si="4"/>
+        <v>348.83720930232556</v>
+      </c>
       <c r="F18" s="18"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="14"/>
+      <c r="H18" s="15">
+        <f t="shared" si="2"/>
+        <v>457.14235793724004</v>
+      </c>
+      <c r="I18" s="14">
+        <f t="shared" si="3"/>
+        <v>445.12</v>
+      </c>
       <c r="J18" s="8"/>
-      <c r="K18" s="7"/>
+      <c r="K18" s="7">
+        <f t="shared" si="0"/>
+        <v>203485.14464000001</v>
+      </c>
       <c r="L18" s="13"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="7">
+        <v>280000</v>
+      </c>
+      <c r="N18">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1737,7 +1970,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1751,7 +1984,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1773,5 +2006,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/1-学习内容/2025/持仓成本.xlsx
+++ b/1-学习内容/2025/持仓成本.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\笔记\日常总结\1-学习内容\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\日常总结\1-学习内容\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F028919-D951-4DC4-BECB-287690131F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513543DA-9043-4900-B864-EA57F0A64743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="22860" windowHeight="10476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AMD" sheetId="1" r:id="rId1"/>
     <sheet name="QQQ" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -739,26 +739,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.78515625" customWidth="1"/>
-    <col min="2" max="2" width="12.78515625" customWidth="1"/>
-    <col min="3" max="3" width="12.2109375" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="10" width="11.78515625" customWidth="1"/>
-    <col min="11" max="11" width="14.35546875" customWidth="1"/>
+    <col min="8" max="10" width="11.77734375" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -775,7 +775,7 @@
       <c r="L1" s="30"/>
       <c r="M1" s="31"/>
     </row>
-    <row r="2" spans="1:13" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -790,7 +790,7 @@
       <c r="L2" s="32"/>
       <c r="M2" s="33"/>
     </row>
-    <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -831,7 +831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -861,14 +861,14 @@
         <v>411</v>
       </c>
       <c r="L4" s="12">
-        <f t="shared" ref="L4:L8" si="0">ROUND(K4/M4,4)</f>
+        <f t="shared" ref="L4:L9" si="0">ROUND(K4/M4,4)</f>
         <v>0.16439999999999999</v>
       </c>
       <c r="M4" s="7">
         <v>2500</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -905,7 +905,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -942,7 +942,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -979,7 +979,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1024,18 +1024,35 @@
       <c r="C9" s="9"/>
       <c r="D9" s="17"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="12"/>
+      <c r="F9" s="18">
+        <v>235</v>
+      </c>
+      <c r="G9" s="11">
+        <v>7</v>
+      </c>
+      <c r="H9" s="15">
+        <v>7</v>
+      </c>
+      <c r="I9" s="14">
+        <f>ROUND(K9/H9,2)</f>
+        <v>7.49</v>
+      </c>
+      <c r="J9" s="6">
+        <v>45944</v>
+      </c>
+      <c r="K9" s="7">
+        <f>SUM(B9)*SUM(C9)+SUM(D9)*SUM(E9)-SUM(F9)*SUM(G9)+SUM(K8)</f>
+        <v>52.400000000000091</v>
+      </c>
+      <c r="L9" s="12">
+        <f t="shared" si="0"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
       <c r="M9" s="7">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1054,7 +1071,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1073,7 +1090,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1092,7 +1109,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1111,7 +1128,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1130,7 +1147,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1149,7 +1166,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1168,7 +1185,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1187,7 +1204,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1206,7 +1223,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1220,7 +1237,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1234,7 +1251,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1264,26 +1281,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC96F52-3510-4263-A07D-702567133896}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.78515625" customWidth="1"/>
-    <col min="2" max="2" width="12.78515625" customWidth="1"/>
-    <col min="3" max="3" width="12.2109375" customWidth="1"/>
-    <col min="4" max="4" width="11.0703125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.92578125" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="10" width="11.78515625" customWidth="1"/>
-    <col min="11" max="11" width="14.35546875" customWidth="1"/>
+    <col min="8" max="10" width="11.77734375" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1300,7 +1317,7 @@
       <c r="L1" s="30"/>
       <c r="M1" s="31"/>
     </row>
-    <row r="2" spans="1:14" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -1315,7 +1332,7 @@
       <c r="L2" s="32"/>
       <c r="M2" s="33"/>
     </row>
-    <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -1356,7 +1373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1396,7 +1413,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1436,7 +1453,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1476,7 +1493,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1516,7 +1533,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1556,7 +1573,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1596,7 +1613,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1636,7 +1653,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1676,7 +1693,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1716,7 +1733,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1756,7 +1773,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1797,7 +1814,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1838,7 +1855,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1879,7 +1896,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1920,7 +1937,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1956,7 +1973,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1970,7 +1987,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1984,7 +2001,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
